--- a/branches/main/StructureDefinition-omrs-immunization.xlsx
+++ b/branches/main/StructureDefinition-omrs-immunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:24:20+00:00</t>
+    <t>2023-03-16T09:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-immunization.xlsx
+++ b/branches/main/StructureDefinition-omrs-immunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T09:46:21+00:00</t>
+    <t>2023-03-16T13:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-immunization.xlsx
+++ b/branches/main/StructureDefinition-omrs-immunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T13:05:08+00:00</t>
+    <t>2023-03-20T20:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-immunization.xlsx
+++ b/branches/main/StructureDefinition-omrs-immunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T20:26:34+00:00</t>
+    <t>2023-05-01T15:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-immunization.xlsx
+++ b/branches/main/StructureDefinition-omrs-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="441">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/StructureDefinition/omrs-immunization</t>
+    <t>http://fhir.openmrs.org/core/StructureDefinition/omrs-immunization</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T15:55:39+00:00</t>
+    <t>2023-05-08T19:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -504,7 +504,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/ValueSet/valueset-immunization-status</t>
+    <t>A set of codes indicating the current status of an Immunization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -586,7 +589,7 @@
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-patient)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-patient)
 </t>
   </si>
   <si>
@@ -614,7 +617,7 @@
     <t>Immunization.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-encounter)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-encounter)
 </t>
   </si>
   <si>
@@ -754,7 +757,7 @@
     <t>Immunization.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-location)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-location)
 </t>
   </si>
   <si>
@@ -1005,7 +1008,7 @@
     <t>Immunization.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-practitioner)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-practitioner)
 </t>
   </si>
   <si>
@@ -1682,7 +1685,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1697,7 +1700,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.39453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.24609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3104,9 +3107,11 @@
       <c r="X12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y12" s="2"/>
+      <c r="Y12" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -3139,30 +3144,30 @@
         <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3185,16 +3190,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3220,13 +3225,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -3244,7 +3249,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3259,13 +3264,13 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>76</v>
@@ -3279,10 +3284,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3305,13 +3310,13 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3338,13 +3343,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3362,7 +3367,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>87</v>
@@ -3377,30 +3382,30 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3423,13 +3428,13 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3480,7 +3485,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>87</v>
@@ -3495,30 +3500,30 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3541,13 +3546,13 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3598,7 +3603,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3613,30 +3618,30 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3659,16 +3664,16 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3706,17 +3711,17 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>87</v>
@@ -3731,19 +3736,19 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>76</v>
@@ -3751,13 +3756,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>76</v>
@@ -3779,16 +3784,16 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3838,7 +3843,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
@@ -3853,30 +3858,30 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3899,13 +3904,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3956,7 +3961,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3977,10 +3982,10 @@
         <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>76</v>
@@ -3991,10 +3996,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4017,16 +4022,16 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4076,7 +4081,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4094,13 +4099,13 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>76</v>
@@ -4111,10 +4116,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4137,16 +4142,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4172,13 +4177,13 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -4196,7 +4201,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4214,13 +4219,13 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>76</v>
@@ -4231,10 +4236,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4257,13 +4262,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4314,7 +4319,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4329,30 +4334,30 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4375,13 +4380,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4432,7 +4437,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4450,27 +4455,27 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4493,13 +4498,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4550,7 +4555,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4568,27 +4573,27 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4611,13 +4616,13 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4668,7 +4673,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4686,10 +4691,10 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>76</v>
@@ -4698,15 +4703,15 @@
         <v>76</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4729,13 +4734,13 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4762,13 +4767,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4786,7 +4791,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4804,16 +4809,16 @@
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>76</v>
@@ -4821,10 +4826,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4847,13 +4852,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4880,13 +4885,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4904,7 +4909,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4922,16 +4927,16 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>76</v>
@@ -4939,10 +4944,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4965,13 +4970,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5022,7 +5027,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5040,10 +5045,10 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -5057,10 +5062,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5083,13 +5088,13 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5140,7 +5145,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5155,13 +5160,13 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -5175,10 +5180,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5201,13 +5206,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5258,7 +5263,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5279,7 +5284,7 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -5293,10 +5298,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5325,7 +5330,7 @@
         <v>135</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>137</v>
@@ -5378,7 +5383,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5399,7 +5404,7 @@
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -5413,14 +5418,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5442,10 +5447,10 @@
         <v>134</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>137</v>
@@ -5500,7 +5505,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5535,10 +5540,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5561,13 +5566,13 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5594,13 +5599,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5618,7 +5623,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5633,13 +5638,13 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>76</v>
@@ -5653,10 +5658,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5679,16 +5684,16 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5738,7 +5743,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -5753,30 +5758,30 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5799,13 +5804,13 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5856,7 +5861,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5871,13 +5876,13 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -5891,10 +5896,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5917,13 +5922,13 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5950,13 +5955,13 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -5974,7 +5979,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5989,13 +5994,13 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -6009,10 +6014,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6035,13 +6040,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6092,7 +6097,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6107,7 +6112,7 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -6127,10 +6132,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6153,23 +6158,23 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>76</v>
@@ -6214,7 +6219,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6232,7 +6237,7 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>131</v>
@@ -6249,10 +6254,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6275,13 +6280,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6308,13 +6313,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -6332,7 +6337,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6367,10 +6372,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6393,13 +6398,13 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6450,7 +6455,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6462,7 +6467,7 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6485,10 +6490,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6511,13 +6516,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6568,7 +6573,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6589,7 +6594,7 @@
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6603,10 +6608,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6635,7 +6640,7 @@
         <v>135</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>137</v>
@@ -6688,7 +6693,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6709,7 +6714,7 @@
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>76</v>
@@ -6723,14 +6728,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6752,10 +6757,10 @@
         <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>137</v>
@@ -6810,7 +6815,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6845,10 +6850,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6871,13 +6876,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6928,7 +6933,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6946,7 +6951,7 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>131</v>
@@ -6963,10 +6968,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6992,10 +6997,10 @@
         <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7046,7 +7051,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7081,10 +7086,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7107,13 +7112,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7164,7 +7169,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7182,7 +7187,7 @@
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>131</v>
@@ -7199,10 +7204,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7225,13 +7230,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7282,7 +7287,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7300,7 +7305,7 @@
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>131</v>
@@ -7317,10 +7322,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7343,13 +7348,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7376,13 +7381,13 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
@@ -7400,7 +7405,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7418,7 +7423,7 @@
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>131</v>
@@ -7435,10 +7440,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7461,13 +7466,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7494,13 +7499,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7518,7 +7523,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7553,10 +7558,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7579,16 +7584,16 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7638,7 +7643,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7656,10 +7661,10 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>76</v>
@@ -7673,10 +7678,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7699,13 +7704,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7756,7 +7761,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7777,7 +7782,7 @@
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>76</v>
@@ -7791,10 +7796,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7823,7 +7828,7 @@
         <v>135</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>137</v>
@@ -7876,7 +7881,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7897,7 +7902,7 @@
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>76</v>
@@ -7911,14 +7916,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7940,10 +7945,10 @@
         <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>137</v>
@@ -7998,7 +8003,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8033,10 +8038,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8059,13 +8064,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8116,7 +8121,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8134,10 +8139,10 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>76</v>
@@ -8151,10 +8156,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8177,13 +8182,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8234,7 +8239,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8252,10 +8257,10 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>76</v>
@@ -8269,10 +8274,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8295,13 +8300,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8352,7 +8357,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8370,10 +8375,10 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
@@ -8387,10 +8392,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8413,13 +8418,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8470,7 +8475,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8505,10 +8510,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8531,13 +8536,13 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8588,7 +8593,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8609,7 +8614,7 @@
         <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>76</v>
@@ -8623,10 +8628,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8655,7 +8660,7 @@
         <v>135</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>137</v>
@@ -8708,7 +8713,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8729,7 +8734,7 @@
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>76</v>
@@ -8743,14 +8748,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8772,10 +8777,10 @@
         <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>137</v>
@@ -8830,7 +8835,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8865,10 +8870,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8891,13 +8896,13 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8948,7 +8953,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8983,10 +8988,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9009,13 +9014,13 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9066,7 +9071,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9101,10 +9106,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9127,13 +9132,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9160,13 +9165,13 @@
         <v>76</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>76</v>
@@ -9184,7 +9189,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9219,10 +9224,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9245,16 +9250,16 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9304,7 +9309,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>87</v>
@@ -9334,15 +9339,15 @@
         <v>76</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9365,16 +9370,16 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9424,7 +9429,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>

--- a/branches/main/StructureDefinition-omrs-immunization.xlsx
+++ b/branches/main/StructureDefinition-omrs-immunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T19:25:22+00:00</t>
+    <t>2023-05-09T05:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-immunization.xlsx
+++ b/branches/main/StructureDefinition-omrs-immunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-09T05:52:21+00:00</t>
+    <t>2023-05-17T15:10:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-immunization.xlsx
+++ b/branches/main/StructureDefinition-omrs-immunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T11:16:34+00:00</t>
+    <t>2023-06-23T17:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
